--- a/design/Excel/excel/被动技能表_passiveSkills.xlsx
+++ b/design/Excel/excel/被动技能表_passiveSkills.xlsx
@@ -43,7 +43,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-主动技能表的ID为10000-19999</t>
+被动技能表的ID为10000-19999</t>
         </r>
       </text>
     </comment>
@@ -1117,31 +1117,31 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>飞行特效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>前端显示组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>目标选择</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>目标组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>小哥普攻</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>小哥技能1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>小哥技能2</t>
@@ -1151,7 +1151,7 @@
   </si>
   <si>
     <t>小哥能量技</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1167,7 +1167,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1183,7 +1183,7 @@
       </rPr>
       <t>ame</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1199,7 +1199,7 @@
       </rPr>
       <t>ote</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1215,7 +1215,7 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1231,15 +1231,15 @@
       </rPr>
       <t>killCd</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>flyEffects</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>命中特效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1255,15 +1255,15 @@
       </rPr>
       <t>itEffects</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>计算公式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>formula</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1300,19 +1300,19 @@
   </si>
   <si>
     <t>自身buff</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>目标buff</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>selfBuff</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>targetBuff</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1328,19 +1328,19 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>buff组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>特效组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1356,19 +1356,19 @@
       </rPr>
       <t>tring</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>参数1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>参数2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1384,23 +1384,23 @@
       </rPr>
       <t>alue1</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>伤害范围</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>伤害数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1416,7 +1416,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1432,7 +1432,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1448,11 +1448,11 @@
       </rPr>
       <t>Type</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>damageRange</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1478,11 +1478,11 @@
       </rPr>
       <t>Nunber</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>数值组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1498,27 +1498,27 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被动CD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被动名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被动说明</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能范围</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>skillRange</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1554,15 +1554,15 @@
       </rPr>
       <t>election</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>伤害效果组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>触发概率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1578,23 +1578,23 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>probability</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>光环？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>还有其他的各种触发条件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>反伤？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1610,22 +1610,22 @@
       </rPr>
       <t>ttribute</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>附加属性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被动类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1633,6 +1633,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1773,49 +1780,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2115,7 +2122,7 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2150,10 +2157,10 @@
       <c r="E1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="12" t="s">
@@ -2183,7 +2190,7 @@
       <c r="P1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>61</v>
       </c>
       <c r="R1" s="12" t="s">
@@ -2202,37 +2209,37 @@
       <c r="W1" s="12"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="H2" s="13" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="H2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1">
       <c r="A3" s="5" t="s">
@@ -2251,7 +2258,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="12" t="s">
@@ -2297,7 +2304,7 @@
         <v>27</v>
       </c>
       <c r="V3" s="8"/>
-      <c r="W3" s="15"/>
+      <c r="W3" s="13"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="4" t="s">
@@ -2316,7 +2323,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H4" s="12" t="s">
@@ -2346,7 +2353,7 @@
       <c r="P4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="13" t="s">
         <v>60</v>
       </c>
       <c r="R4" s="12" t="s">
@@ -2361,8 +2368,8 @@
       <c r="U4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1">
@@ -2379,9 +2386,6 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="7">
@@ -2390,8 +2394,8 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>59</v>
+      <c r="E7" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2401,8 +2405,8 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>58</v>
+      <c r="E8" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2411,6 +2415,9 @@
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2423,7 +2430,7 @@
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2438,7 +2445,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -2452,7 +2459,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/design/Excel/excel/被动技能表_passiveSkills.xlsx
+++ b/design/Excel/excel/被动技能表_passiveSkills.xlsx
@@ -2122,7 +2122,7 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2394,7 +2394,7 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>58</v>
       </c>
     </row>

--- a/design/Excel/excel/被动技能表_passiveSkills.xlsx
+++ b/design/Excel/excel/被动技能表_passiveSkills.xlsx
@@ -1114,7 +1114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1133,24 +1133,6 @@
   </si>
   <si>
     <t>目标组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小哥普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小哥技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小哥技能2</t>
-  </si>
-  <si>
-    <t>小哥技能3</t>
-  </si>
-  <si>
-    <t>小哥能量技</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1585,18 +1567,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>光环？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有其他的各种触发条件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>反伤？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>a</t>
     </r>
@@ -1618,6 +1588,30 @@
   </si>
   <si>
     <t>被动类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指探洞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘之血</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏锐</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小哥在队伍中时，视野范围扩大20%</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小哥的双指能够更快的解开陷阱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小哥对虫类、鬼魂、僵尸怪物的伤害提高20%</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1776,7 +1770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1819,11 +1813,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2122,13 +2128,13 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="19" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="7" width="9" style="11"/>
     <col min="8" max="9" width="9" style="9"/>
@@ -2146,25 +2152,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>3</v>
@@ -2173,200 +2179,200 @@
         <v>1</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="V1" s="12"/>
       <c r="W1" s="12"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="H2" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
+      <c r="R2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="V3" s="8"/>
       <c r="W3" s="13"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="R4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="U4" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
@@ -2375,50 +2381,45 @@
       <c r="A5" s="1">
         <v>10000</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
+      <c r="B5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="7">
         <v>10001</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
+      <c r="B6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="7">
+      <c r="A7" s="14">
         <v>10002</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="B7" s="17" t="s">
         <v>57</v>
       </c>
+      <c r="C7" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="7">
-        <v>10003</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="2"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="7">
-        <v>10004</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="2"/>
+      <c r="F9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/design/Excel/excel/被动技能表_passiveSkills.xlsx
+++ b/design/Excel/excel/被动技能表_passiveSkills.xlsx
@@ -1109,31 +1109,187 @@
         </r>
       </text>
     </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+前端显示组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+目标组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+特效组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+buff</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+伤害效果组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+数值组</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>飞行特效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端显示组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>目标选择</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1149,7 +1305,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1165,7 +1321,7 @@
       </rPr>
       <t>ame</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1181,7 +1337,7 @@
       </rPr>
       <t>ote</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1197,7 +1353,7 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1213,15 +1369,15 @@
       </rPr>
       <t>killCd</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>flyEffects</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>命中特效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1237,15 +1393,15 @@
       </rPr>
       <t>itEffects</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>计算公式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>formula</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1282,19 +1438,19 @@
   </si>
   <si>
     <t>自身buff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>目标buff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>selfBuff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>targetBuff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1310,19 +1466,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1338,19 +1486,19 @@
       </rPr>
       <t>tring</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>参数1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>参数2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1366,23 +1514,23 @@
       </rPr>
       <t>alue1</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>伤害范围</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>伤害数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1398,7 +1546,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1414,7 +1562,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1430,11 +1578,11 @@
       </rPr>
       <t>Type</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>damageRange</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1460,11 +1608,7 @@
       </rPr>
       <t>Nunber</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1480,27 +1624,27 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>被动CD</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>被动名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>被动说明</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>技能范围</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>skillRange</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1536,15 +1680,11 @@
       </rPr>
       <t>election</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害效果组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>触发概率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1560,11 +1700,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>probability</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1580,46 +1720,46 @@
       </rPr>
       <t>ttribute</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>附加属性</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>被动类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>双指探洞</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>神秘之血</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>敏锐</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>小哥在队伍中时，视野范围扩大20%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>小哥的双指能够更快的解开陷阱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>小哥对虫类、鬼魂、僵尸怪物的伤害提高20%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1627,6 +1767,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1774,62 +1921,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2128,13 +2275,13 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="24.625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="17" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="7" width="9" style="11"/>
     <col min="8" max="9" width="9" style="9"/>
@@ -2152,227 +2299,215 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="S1" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V1" s="12"/>
       <c r="W1" s="12"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="B2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="H2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="R3" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V3" s="8"/>
       <c r="W3" s="13"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="R4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="12" t="s">
+      <c r="S4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>16</v>
       </c>
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
@@ -2381,33 +2516,33 @@
       <c r="A5" s="1">
         <v>10000</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>59</v>
+      <c r="B5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="7">
         <v>10001</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>60</v>
+      <c r="B6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="14">
         <v>10002</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>58</v>
+      <c r="B7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -2431,7 +2566,7 @@
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2446,7 +2581,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -2460,7 +2595,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/design/Excel/excel/被动技能表_passiveSkills.xlsx
+++ b/design/Excel/excel/被动技能表_passiveSkills.xlsx
@@ -1278,18 +1278,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>飞行特效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>目标选择</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1305,7 +1305,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1321,7 +1321,7 @@
       </rPr>
       <t>ame</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1337,7 +1337,7 @@
       </rPr>
       <t>ote</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1353,7 +1353,7 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1369,15 +1369,15 @@
       </rPr>
       <t>killCd</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>flyEffects</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>命中特效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1393,15 +1393,15 @@
       </rPr>
       <t>itEffects</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>计算公式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>formula</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1438,19 +1438,19 @@
   </si>
   <si>
     <t>自身buff</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>目标buff</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>selfBuff</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>targetBuff</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1466,11 +1466,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1486,19 +1486,19 @@
       </rPr>
       <t>tring</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>参数1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>参数2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1514,23 +1514,23 @@
       </rPr>
       <t>alue1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>伤害范围</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>伤害数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1546,7 +1546,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1562,7 +1562,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1578,11 +1578,11 @@
       </rPr>
       <t>Type</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>damageRange</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1608,7 +1608,7 @@
       </rPr>
       <t>Nunber</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1624,27 +1624,27 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被动CD</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被动名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被动说明</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能范围</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>skillRange</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1680,11 +1680,11 @@
       </rPr>
       <t>election</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>触发概率</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1700,11 +1700,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>probability</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1720,46 +1720,30 @@
       </rPr>
       <t>ttribute</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>附加属性</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>被动类型</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指探洞</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘之血</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏锐</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>小哥在队伍中时，视野范围扩大20%</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>小哥的双指能够更快的解开陷阱</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>小哥对虫类、鬼魂、僵尸怪物的伤害提高20%</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中：霍根的生命上限提高10%</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚毅1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1767,13 +1751,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1921,62 +1898,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2272,16 +2249,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="24.625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="14" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="7" width="9" style="11"/>
     <col min="8" max="9" width="9" style="9"/>
@@ -2362,25 +2339,25 @@
       <c r="W1" s="12"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1">
       <c r="A3" s="5" t="s">
@@ -2516,45 +2493,58 @@
       <c r="A5" s="1">
         <v>10000</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>53</v>
+      <c r="D5" s="15">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="7">
-        <v>10001</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="2"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="14">
-        <v>10002</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>52</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="2"/>
       <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2"/>
-      <c r="F9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2566,7 +2556,7 @@
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2581,7 +2571,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -2595,7 +2585,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
